--- a/Code/close-universities.xlsx
+++ b/Code/close-universities.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>Oregon</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>Oregon</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4142,7 +4142,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4422,7 +4422,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>Arkansas</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>Arkansas</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4838,7 +4838,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5388,7 +5388,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6567,7 +6567,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6634,7 +6634,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6912,7 +6912,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -6950,7 +6950,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6983,7 +6983,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -7019,7 +7019,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -7050,7 +7050,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -7155,7 +7155,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -7326,7 +7326,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -7362,7 +7362,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7393,7 +7393,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -7431,7 +7431,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -7464,7 +7464,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -7500,7 +7500,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -7571,7 +7571,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -7602,7 +7602,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -7638,7 +7638,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -7740,7 +7740,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -7776,7 +7776,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -7807,7 +7807,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -8014,7 +8014,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -8050,7 +8050,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>Wisconsin</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>Wisconsin</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -8117,7 +8117,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -8150,7 +8150,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -8322,7 +8322,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -8422,7 +8422,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -8458,7 +8458,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -8491,7 +8491,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -8529,7 +8529,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -8560,7 +8560,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -8598,7 +8598,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -8629,7 +8629,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -8696,7 +8696,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -8767,7 +8767,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -8836,7 +8836,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -8907,7 +8907,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -8943,7 +8943,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -9254,7 +9254,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -9321,7 +9321,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -9359,7 +9359,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -9497,7 +9497,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -9530,7 +9530,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -9599,7 +9599,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -9637,7 +9637,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -9668,7 +9668,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -9737,7 +9737,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -9808,7 +9808,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -9944,7 +9944,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -9980,7 +9980,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -10080,7 +10080,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -10185,7 +10185,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -10354,7 +10354,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -10390,7 +10390,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -10461,7 +10461,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -10494,7 +10494,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -10532,7 +10532,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -10563,7 +10563,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -10630,7 +10630,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -10668,7 +10668,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -10737,7 +10737,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -10770,7 +10770,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -10808,7 +10808,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -10841,7 +10841,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -10879,7 +10879,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -10912,7 +10912,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -10950,7 +10950,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -10981,7 +10981,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -11048,7 +11048,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>Wisconsin</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -11115,7 +11115,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>Wisconsin</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -11186,7 +11186,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -11222,7 +11222,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -11255,7 +11255,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -11324,7 +11324,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -11360,7 +11360,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -11393,7 +11393,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -11429,7 +11429,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -11496,7 +11496,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -11529,7 +11529,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -11565,7 +11565,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -11634,7 +11634,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -11703,7 +11703,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -11736,7 +11736,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -11805,7 +11805,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -11876,7 +11876,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -11914,7 +11914,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -11947,7 +11947,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -11983,7 +11983,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -12014,7 +12014,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -12052,7 +12052,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -12083,7 +12083,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -12152,7 +12152,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -12190,7 +12190,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -12221,7 +12221,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -12257,7 +12257,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -12290,7 +12290,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -12361,7 +12361,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -12397,7 +12397,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -12430,7 +12430,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -12466,7 +12466,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -12497,7 +12497,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -12535,7 +12535,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -12566,7 +12566,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -12602,7 +12602,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -12633,7 +12633,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -12671,7 +12671,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -12704,7 +12704,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -12740,7 +12740,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -12773,7 +12773,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -12809,7 +12809,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -12842,7 +12842,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -12880,7 +12880,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -12949,7 +12949,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -12980,7 +12980,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -13018,7 +13018,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -13051,7 +13051,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -13089,7 +13089,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -13120,7 +13120,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -13156,7 +13156,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -13189,7 +13189,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -13227,7 +13227,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -13258,7 +13258,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -13327,7 +13327,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -13365,7 +13365,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -13398,7 +13398,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -13436,7 +13436,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -13469,7 +13469,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -13507,7 +13507,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -13578,7 +13578,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -13609,7 +13609,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -13645,7 +13645,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -13678,7 +13678,7 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -13716,7 +13716,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -13747,7 +13747,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -13852,7 +13852,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -13883,7 +13883,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -13919,7 +13919,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -13952,7 +13952,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -13990,7 +13990,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -14059,7 +14059,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -14092,7 +14092,7 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -14128,7 +14128,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -14197,7 +14197,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -14230,7 +14230,7 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -14268,7 +14268,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -14301,7 +14301,7 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
@@ -14337,7 +14337,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -14370,7 +14370,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
@@ -14406,7 +14406,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Idaho</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -14437,7 +14437,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
@@ -14473,7 +14473,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -14506,7 +14506,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
@@ -14542,7 +14542,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -14575,7 +14575,7 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
@@ -14611,7 +14611,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -14642,7 +14642,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
@@ -14678,7 +14678,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -14711,7 +14711,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
@@ -14749,7 +14749,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -14782,7 +14782,7 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
@@ -14818,7 +14818,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -14851,7 +14851,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
@@ -14887,7 +14887,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
@@ -14958,7 +14958,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -14991,7 +14991,7 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
@@ -15029,7 +15029,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
@@ -15098,7 +15098,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -15131,7 +15131,7 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
@@ -15169,7 +15169,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -15200,7 +15200,7 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
@@ -15236,7 +15236,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -15269,7 +15269,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
@@ -15305,7 +15305,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>Wisconsin</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -15338,7 +15338,7 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>Wisconsin</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
@@ -15374,7 +15374,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -15407,7 +15407,7 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
@@ -15445,7 +15445,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
@@ -15514,7 +15514,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -15545,7 +15545,7 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
@@ -15583,7 +15583,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -15616,7 +15616,7 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
@@ -15654,7 +15654,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -15687,7 +15687,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
@@ -15725,7 +15725,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -15756,7 +15756,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
@@ -15794,7 +15794,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -15825,7 +15825,7 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
@@ -15861,7 +15861,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -15892,7 +15892,7 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -15959,7 +15959,7 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
@@ -15995,7 +15995,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -16026,7 +16026,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
@@ -16062,7 +16062,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -16093,7 +16093,7 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
@@ -16129,7 +16129,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
@@ -16196,7 +16196,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -16227,7 +16227,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
@@ -16263,7 +16263,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -16296,7 +16296,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
@@ -16332,7 +16332,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -16363,7 +16363,7 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
@@ -16399,7 +16399,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -16432,7 +16432,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
@@ -16468,7 +16468,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -16501,7 +16501,7 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
@@ -16539,7 +16539,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -16572,7 +16572,7 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -16641,7 +16641,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
@@ -16679,7 +16679,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -16712,7 +16712,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
@@ -16750,7 +16750,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -16783,7 +16783,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
@@ -16821,7 +16821,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -16852,7 +16852,7 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -16921,7 +16921,7 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
@@ -16957,7 +16957,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -16988,7 +16988,7 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M240" t="inlineStr">
@@ -17026,7 +17026,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -17059,7 +17059,7 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
@@ -17097,7 +17097,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -17130,7 +17130,7 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
@@ -17168,7 +17168,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -17199,7 +17199,7 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
@@ -17235,7 +17235,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -17266,7 +17266,7 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
@@ -17302,7 +17302,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -17333,7 +17333,7 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
@@ -17369,7 +17369,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -17400,7 +17400,7 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M246" t="inlineStr">
@@ -17438,7 +17438,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -17471,7 +17471,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
@@ -17507,7 +17507,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -17538,7 +17538,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
@@ -17574,7 +17574,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -17607,7 +17607,7 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
@@ -17643,7 +17643,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -17674,7 +17674,7 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
@@ -17712,7 +17712,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -17743,7 +17743,7 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
@@ -17781,7 +17781,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -17814,7 +17814,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
@@ -17850,7 +17850,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
@@ -17919,7 +17919,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -17950,7 +17950,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
@@ -17986,7 +17986,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -18017,7 +18017,7 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
@@ -18055,7 +18055,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -18086,7 +18086,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
@@ -18122,7 +18122,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -18153,7 +18153,7 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
@@ -18189,7 +18189,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -18220,7 +18220,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
@@ -18258,7 +18258,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -18289,7 +18289,7 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
@@ -18327,7 +18327,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -18358,7 +18358,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
@@ -18394,7 +18394,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -18425,7 +18425,7 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
@@ -18461,7 +18461,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -18492,7 +18492,7 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
@@ -18530,7 +18530,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -18561,7 +18561,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
@@ -18597,7 +18597,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -18628,7 +18628,7 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
@@ -18664,7 +18664,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -18697,7 +18697,7 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
@@ -18733,7 +18733,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -18766,7 +18766,7 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
@@ -18802,7 +18802,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -18835,7 +18835,7 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
@@ -18873,7 +18873,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
@@ -18942,7 +18942,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -18975,7 +18975,7 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
@@ -19011,7 +19011,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -19044,7 +19044,7 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
@@ -19080,7 +19080,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -19113,7 +19113,7 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
@@ -19220,7 +19220,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -19253,7 +19253,7 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
@@ -19289,7 +19289,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -19322,7 +19322,7 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
@@ -19360,7 +19360,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -19393,7 +19393,7 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
@@ -19431,7 +19431,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -19464,7 +19464,7 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
@@ -19500,7 +19500,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -19533,7 +19533,7 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
@@ -19569,7 +19569,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -19600,7 +19600,7 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
@@ -19638,7 +19638,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -19669,7 +19669,7 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
@@ -19707,7 +19707,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -19738,7 +19738,7 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
@@ -19776,7 +19776,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -19807,7 +19807,7 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
@@ -19845,7 +19845,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -19876,7 +19876,7 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
@@ -19914,7 +19914,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -19947,7 +19947,7 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
@@ -19983,7 +19983,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -20016,7 +20016,7 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
@@ -20052,7 +20052,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -20085,7 +20085,7 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
@@ -20121,7 +20121,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
@@ -20188,7 +20188,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -20221,7 +20221,7 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
@@ -20257,7 +20257,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -20288,7 +20288,7 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
@@ -20324,7 +20324,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -20355,7 +20355,7 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
@@ -20393,7 +20393,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -20424,7 +20424,7 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
@@ -20460,7 +20460,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -20491,7 +20491,7 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
@@ -20527,7 +20527,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -20558,7 +20558,7 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
@@ -20594,7 +20594,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -20627,7 +20627,7 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
@@ -20663,7 +20663,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -20696,7 +20696,7 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
@@ -20732,7 +20732,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -20763,7 +20763,7 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
@@ -20801,7 +20801,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -20832,7 +20832,7 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
@@ -20870,7 +20870,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -20901,7 +20901,7 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
@@ -20939,7 +20939,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -20970,7 +20970,7 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
@@ -21006,7 +21006,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -21039,7 +21039,7 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
@@ -21077,7 +21077,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -21110,7 +21110,7 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -21179,7 +21179,7 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
@@ -21217,7 +21217,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -21250,7 +21250,7 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
@@ -21286,7 +21286,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -21319,7 +21319,7 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
@@ -21357,7 +21357,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -21388,7 +21388,7 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
@@ -21426,7 +21426,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -21459,7 +21459,7 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
@@ -21497,7 +21497,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
@@ -21568,7 +21568,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -21599,7 +21599,7 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
@@ -21637,7 +21637,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -21670,7 +21670,7 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
@@ -21708,7 +21708,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -21741,7 +21741,7 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
@@ -21777,7 +21777,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -21808,7 +21808,7 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
@@ -21846,7 +21846,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -21879,7 +21879,7 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
@@ -21915,7 +21915,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -21948,7 +21948,7 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
@@ -21986,7 +21986,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -22019,7 +22019,7 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -22090,7 +22090,7 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
@@ -22128,7 +22128,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -22161,7 +22161,7 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
@@ -22197,7 +22197,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -22228,7 +22228,7 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
@@ -22266,7 +22266,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
@@ -22333,7 +22333,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -22366,7 +22366,7 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
@@ -22404,7 +22404,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -22435,7 +22435,7 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M319" t="inlineStr">
@@ -22473,7 +22473,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -22506,7 +22506,7 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -22577,7 +22577,7 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
@@ -22613,7 +22613,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -22646,7 +22646,7 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
@@ -22682,7 +22682,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -22713,7 +22713,7 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
@@ -22751,7 +22751,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
@@ -22822,7 +22822,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -22855,7 +22855,7 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
@@ -22893,7 +22893,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -22926,7 +22926,7 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
@@ -22964,7 +22964,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -22997,7 +22997,7 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
@@ -23035,7 +23035,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -23066,7 +23066,7 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
@@ -23102,7 +23102,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -23135,7 +23135,7 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
@@ -23171,7 +23171,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -23202,7 +23202,7 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
@@ -23238,7 +23238,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -23271,7 +23271,7 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
@@ -23309,7 +23309,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -23342,7 +23342,7 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
@@ -23380,7 +23380,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -23413,7 +23413,7 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M333" t="inlineStr">
@@ -23449,7 +23449,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -23480,7 +23480,7 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M334" t="inlineStr">
@@ -23518,7 +23518,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -23551,7 +23551,7 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M335" t="inlineStr">
@@ -23587,7 +23587,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -23618,7 +23618,7 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
@@ -23656,7 +23656,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -23687,7 +23687,7 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
@@ -23723,7 +23723,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -23756,7 +23756,7 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
@@ -23794,7 +23794,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -23827,7 +23827,7 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
@@ -23865,7 +23865,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -23896,7 +23896,7 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -23965,7 +23965,7 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
@@ -24001,7 +24001,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -24034,7 +24034,7 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
@@ -24072,7 +24072,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -24105,7 +24105,7 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
@@ -24143,7 +24143,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -24174,7 +24174,7 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
@@ -24212,7 +24212,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -24245,7 +24245,7 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
@@ -24283,7 +24283,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -24316,7 +24316,7 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -24385,7 +24385,7 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
@@ -24423,7 +24423,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -24456,7 +24456,7 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
@@ -24494,7 +24494,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -24527,7 +24527,7 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
@@ -24563,7 +24563,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -24596,7 +24596,7 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
@@ -24634,7 +24634,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -24667,7 +24667,7 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
@@ -24705,7 +24705,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -24738,7 +24738,7 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
@@ -24776,7 +24776,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -24809,7 +24809,7 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
@@ -24845,7 +24845,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -24878,7 +24878,7 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
@@ -24916,7 +24916,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -24949,7 +24949,7 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
@@ -24987,7 +24987,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -25020,7 +25020,7 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
@@ -25058,7 +25058,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -25091,7 +25091,7 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
@@ -25129,7 +25129,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -25162,7 +25162,7 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
@@ -25200,7 +25200,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -25233,7 +25233,7 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
@@ -25271,7 +25271,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -25304,7 +25304,7 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
@@ -25340,7 +25340,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -25371,7 +25371,7 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
@@ -25407,7 +25407,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -25438,7 +25438,7 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
@@ -25476,7 +25476,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -25507,7 +25507,7 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
@@ -25545,7 +25545,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -25578,7 +25578,7 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M364" t="inlineStr">
@@ -25616,7 +25616,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -25649,7 +25649,7 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
@@ -25685,7 +25685,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -25718,7 +25718,7 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
@@ -25756,7 +25756,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -25789,7 +25789,7 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
@@ -25825,7 +25825,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -25858,7 +25858,7 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
@@ -25896,7 +25896,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -25927,7 +25927,7 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
@@ -25965,7 +25965,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -25998,7 +25998,7 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
@@ -26034,7 +26034,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -26067,7 +26067,7 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
@@ -26103,7 +26103,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -26136,7 +26136,7 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M372" t="inlineStr">
@@ -26172,7 +26172,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -26205,7 +26205,7 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M373" t="inlineStr">
@@ -26243,7 +26243,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -26276,7 +26276,7 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M374" t="inlineStr">
@@ -26314,7 +26314,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -26347,7 +26347,7 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M375" t="inlineStr">
@@ -26385,7 +26385,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -26416,7 +26416,7 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="M376" t="inlineStr">
@@ -26452,7 +26452,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -26483,7 +26483,7 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
@@ -26519,7 +26519,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -26552,7 +26552,7 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M378" t="inlineStr">
@@ -26588,7 +26588,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -26621,7 +26621,7 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M379" t="inlineStr">
@@ -26659,7 +26659,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -26692,7 +26692,7 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M380" t="inlineStr">
@@ -26728,7 +26728,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -26759,7 +26759,7 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
@@ -26797,7 +26797,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -26830,7 +26830,7 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
@@ -26866,7 +26866,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -26899,7 +26899,7 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
@@ -26937,7 +26937,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -26968,7 +26968,7 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
@@ -27004,7 +27004,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -27037,7 +27037,7 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
@@ -27075,7 +27075,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -27106,7 +27106,7 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
@@ -27142,7 +27142,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -27175,7 +27175,7 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
@@ -27211,7 +27211,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -27244,7 +27244,7 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
@@ -27280,7 +27280,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -27313,7 +27313,7 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
@@ -27351,7 +27351,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -27384,7 +27384,7 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M390" t="inlineStr">
@@ -27422,7 +27422,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -27455,7 +27455,7 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M391" t="inlineStr">
@@ -27493,7 +27493,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -27526,7 +27526,7 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
@@ -27562,7 +27562,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -27595,7 +27595,7 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
@@ -27631,7 +27631,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -27664,7 +27664,7 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M394" t="inlineStr">
@@ -27702,7 +27702,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
@@ -27735,7 +27735,7 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M395" t="inlineStr">
@@ -27771,7 +27771,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -27804,7 +27804,7 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M396" t="inlineStr">
@@ -27842,7 +27842,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -27875,7 +27875,7 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M397" t="inlineStr">
@@ -27913,7 +27913,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -27944,7 +27944,7 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M398" t="inlineStr">
@@ -27982,7 +27982,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
@@ -28015,7 +28015,7 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M399" t="inlineStr">
@@ -28053,7 +28053,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -28086,7 +28086,7 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M400" t="inlineStr">
@@ -28124,7 +28124,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -28157,7 +28157,7 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M401" t="inlineStr">
@@ -28195,7 +28195,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -28228,7 +28228,7 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M402" t="inlineStr">
@@ -28266,7 +28266,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -28299,7 +28299,7 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M403" t="inlineStr">
@@ -28337,7 +28337,7 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -28370,7 +28370,7 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="M404" t="inlineStr">
@@ -28406,7 +28406,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -28439,7 +28439,7 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M405" t="inlineStr">
@@ -28477,7 +28477,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -28508,7 +28508,7 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M406" t="inlineStr">
@@ -28546,7 +28546,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -28579,7 +28579,7 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M407" t="inlineStr">
@@ -28617,7 +28617,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -28650,7 +28650,7 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M408" t="inlineStr">
@@ -28688,7 +28688,7 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
@@ -28719,7 +28719,7 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M409" t="inlineStr">
@@ -28755,7 +28755,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -28788,7 +28788,7 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M410" t="inlineStr">
@@ -28826,7 +28826,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -28859,7 +28859,7 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M411" t="inlineStr">
@@ -28897,7 +28897,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -28928,7 +28928,7 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M412" t="inlineStr">
@@ -28966,7 +28966,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -28997,7 +28997,7 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M413" t="inlineStr">
@@ -29033,7 +29033,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -29064,7 +29064,7 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M414" t="inlineStr">
@@ -29102,7 +29102,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
@@ -29133,7 +29133,7 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M415" t="inlineStr">
@@ -29171,7 +29171,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -29202,7 +29202,7 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="M416" t="inlineStr">
@@ -29238,7 +29238,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>Delaware</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -29269,7 +29269,7 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M417" t="inlineStr">
@@ -29307,7 +29307,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -29340,7 +29340,7 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M418" t="inlineStr">
@@ -29378,7 +29378,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -29411,7 +29411,7 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M419" t="inlineStr">
@@ -29449,7 +29449,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -29482,7 +29482,7 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M420" t="inlineStr">
@@ -29520,7 +29520,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -29551,7 +29551,7 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M421" t="inlineStr">
@@ -29587,7 +29587,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
@@ -29620,7 +29620,7 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="M422" t="inlineStr">
@@ -29656,7 +29656,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
@@ -29689,7 +29689,7 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M423" t="inlineStr">
@@ -29725,7 +29725,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
@@ -29758,7 +29758,7 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M424" t="inlineStr">
@@ -29796,7 +29796,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -29827,7 +29827,7 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="M425" t="inlineStr">
@@ -29863,7 +29863,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -29894,7 +29894,7 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M426" t="inlineStr">
@@ -29932,7 +29932,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
@@ -29963,7 +29963,7 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="M427" t="inlineStr">
@@ -29999,7 +29999,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -30030,7 +30030,7 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M428" t="inlineStr">
@@ -30068,7 +30068,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -30099,7 +30099,7 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M429" t="inlineStr">
@@ -30137,7 +30137,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -30170,7 +30170,7 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M430" t="inlineStr">
@@ -30208,7 +30208,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -30239,7 +30239,7 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="M431" t="inlineStr">
@@ -30277,7 +30277,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
@@ -30308,7 +30308,7 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M432" t="inlineStr">
@@ -30344,7 +30344,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -30375,7 +30375,7 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M433" t="inlineStr">
@@ -30411,7 +30411,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
@@ -30442,7 +30442,7 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="M434" t="inlineStr">
@@ -30478,7 +30478,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
@@ -30511,7 +30511,7 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M435" t="inlineStr">
@@ -30549,7 +30549,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
@@ -30580,7 +30580,7 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M436" t="inlineStr">
@@ -30616,7 +30616,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
@@ -30649,7 +30649,7 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M437" t="inlineStr">
@@ -30685,7 +30685,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -30718,7 +30718,7 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M438" t="inlineStr">
@@ -30756,7 +30756,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -30789,7 +30789,7 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M439" t="inlineStr">
@@ -30827,7 +30827,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -30858,7 +30858,7 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M440" t="inlineStr">
@@ -30894,7 +30894,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -30927,7 +30927,7 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="M441" t="inlineStr">
@@ -30963,7 +30963,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -30994,7 +30994,7 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M442" t="inlineStr">
@@ -31030,7 +31030,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
@@ -31063,7 +31063,7 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M443" t="inlineStr">
@@ -31099,7 +31099,7 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
@@ -31130,7 +31130,7 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M444" t="inlineStr">
@@ -31168,7 +31168,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
@@ -31199,7 +31199,7 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="M445" t="inlineStr">
@@ -31235,7 +31235,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -31266,7 +31266,7 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="M446" t="inlineStr">
@@ -31302,7 +31302,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -31333,7 +31333,7 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M447" t="inlineStr">
@@ -31369,7 +31369,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -31400,7 +31400,7 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="M448" t="inlineStr">
@@ -31436,7 +31436,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
@@ -31467,7 +31467,7 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="M449" t="inlineStr">
@@ -31503,7 +31503,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
@@ -31536,7 +31536,7 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M450" t="inlineStr">
@@ -31572,7 +31572,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
@@ -31605,7 +31605,7 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M451" t="inlineStr">
@@ -31641,7 +31641,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
@@ -31674,7 +31674,7 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M452" t="inlineStr">
@@ -31710,7 +31710,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
@@ -31743,7 +31743,7 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M453" t="inlineStr">
@@ -31781,7 +31781,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -31812,7 +31812,7 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="M454" t="inlineStr">
@@ -31850,7 +31850,7 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -31881,7 +31881,7 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M455" t="inlineStr">
@@ -31919,7 +31919,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -31950,7 +31950,7 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M456" t="inlineStr">
@@ -31986,7 +31986,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -32019,7 +32019,7 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M457" t="inlineStr">
@@ -32057,7 +32057,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -32088,7 +32088,7 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M458" t="inlineStr">
@@ -32124,7 +32124,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -32155,7 +32155,7 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="M459" t="inlineStr">
@@ -32191,7 +32191,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -32222,7 +32222,7 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M460" t="inlineStr">
@@ -32258,7 +32258,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -32291,7 +32291,7 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M461" t="inlineStr">
@@ -32327,7 +32327,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
@@ -32358,7 +32358,7 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M462" t="inlineStr">
@@ -32394,7 +32394,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -32427,7 +32427,7 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M463" t="inlineStr">
@@ -32463,7 +32463,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -32494,7 +32494,7 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="M464" t="inlineStr">
@@ -32530,7 +32530,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
@@ -32561,7 +32561,7 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M465" t="inlineStr">
@@ -32599,7 +32599,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
@@ -32630,7 +32630,7 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="M466" t="inlineStr">
@@ -32666,7 +32666,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -32697,7 +32697,7 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M467" t="inlineStr">
@@ -32735,7 +32735,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -32766,7 +32766,7 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M468" t="inlineStr">
@@ -32802,7 +32802,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -32835,7 +32835,7 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M469" t="inlineStr">
@@ -32871,7 +32871,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
@@ -32902,7 +32902,7 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="M470" t="inlineStr">
@@ -32938,7 +32938,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -32971,7 +32971,7 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M471" t="inlineStr">
@@ -33009,7 +33009,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -33042,7 +33042,7 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M472" t="inlineStr">
@@ -33080,7 +33080,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -33113,7 +33113,7 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M473" t="inlineStr">
@@ -33151,7 +33151,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -33184,7 +33184,7 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M474" t="inlineStr">
@@ -33220,7 +33220,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
@@ -33253,7 +33253,7 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M475" t="inlineStr">
@@ -33289,7 +33289,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
@@ -33320,7 +33320,7 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="M476" t="inlineStr">
@@ -33356,7 +33356,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
@@ -33389,7 +33389,7 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M477" t="inlineStr">
@@ -33425,7 +33425,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
@@ -33458,7 +33458,7 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M478" t="inlineStr">
@@ -33494,7 +33494,7 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
@@ -33525,7 +33525,7 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M479" t="inlineStr">
@@ -33563,7 +33563,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
@@ -33596,7 +33596,7 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M480" t="inlineStr">
@@ -33632,7 +33632,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
@@ -33663,7 +33663,7 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M481" t="inlineStr">
@@ -33701,7 +33701,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -33734,7 +33734,7 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="M482" t="inlineStr">
@@ -33772,7 +33772,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -33805,7 +33805,7 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M483" t="inlineStr">
@@ -33841,7 +33841,7 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
@@ -33874,7 +33874,7 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="M484" t="inlineStr">
@@ -33910,7 +33910,7 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
@@ -33941,7 +33941,7 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M485" t="inlineStr">
@@ -33979,7 +33979,7 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
@@ -34010,7 +34010,7 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M486" t="inlineStr">
@@ -34046,7 +34046,7 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
@@ -34079,7 +34079,7 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M487" t="inlineStr">
@@ -34117,7 +34117,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
@@ -34148,7 +34148,7 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M488" t="inlineStr">
@@ -34184,7 +34184,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
@@ -34217,7 +34217,7 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M489" t="inlineStr">
@@ -34253,7 +34253,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
@@ -34286,7 +34286,7 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M490" t="inlineStr">
@@ -34322,7 +34322,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
@@ -34353,7 +34353,7 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M491" t="inlineStr">
@@ -34389,7 +34389,7 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
@@ -34420,7 +34420,7 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M492" t="inlineStr">
@@ -34456,7 +34456,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
@@ -34487,7 +34487,7 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M493" t="inlineStr">
@@ -34523,7 +34523,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
@@ -34554,7 +34554,7 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M494" t="inlineStr">
@@ -34592,7 +34592,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
@@ -34623,7 +34623,7 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="M495" t="inlineStr">
@@ -34659,7 +34659,7 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
@@ -34692,7 +34692,7 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M496" t="inlineStr">
@@ -34728,7 +34728,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
@@ -34761,7 +34761,7 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M497" t="inlineStr">
@@ -34797,7 +34797,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
@@ -34828,7 +34828,7 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M498" t="inlineStr">
@@ -34864,7 +34864,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
@@ -34895,7 +34895,7 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M499" t="inlineStr">
@@ -34931,7 +34931,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
@@ -34962,7 +34962,7 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M500" t="inlineStr">
@@ -34998,7 +34998,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -35031,7 +35031,7 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="M501" t="inlineStr">
@@ -35067,7 +35067,7 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
@@ -35098,7 +35098,7 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="M502" t="inlineStr">
@@ -35134,7 +35134,7 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
@@ -35165,7 +35165,7 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="M503" t="inlineStr">
@@ -35203,7 +35203,7 @@
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
@@ -35234,7 +35234,7 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M504" t="inlineStr">
@@ -35272,7 +35272,7 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
@@ -35305,7 +35305,7 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M505" t="inlineStr">
@@ -35341,7 +35341,7 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F506" t="inlineStr">
@@ -35372,7 +35372,7 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M506" t="inlineStr">
@@ -35410,7 +35410,7 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
@@ -35441,7 +35441,7 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M507" t="inlineStr">
@@ -35477,7 +35477,7 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
@@ -35510,7 +35510,7 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="M508" t="inlineStr">
@@ -35546,7 +35546,7 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
@@ -35579,7 +35579,7 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M509" t="inlineStr">
@@ -35615,7 +35615,7 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
@@ -35646,7 +35646,7 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="M510" t="inlineStr">
@@ -35682,7 +35682,7 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
@@ -35713,7 +35713,7 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M511" t="inlineStr">
@@ -35749,7 +35749,7 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
@@ -35780,7 +35780,7 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="M512" t="inlineStr">
@@ -35816,7 +35816,7 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
@@ -35847,7 +35847,7 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M513" t="inlineStr">
@@ -35883,7 +35883,7 @@
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="F514" t="inlineStr">
@@ -35916,7 +35916,7 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="M514" t="inlineStr">
@@ -35952,7 +35952,7 @@
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="F515" t="inlineStr">
@@ -35985,7 +35985,7 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="M515" t="inlineStr">
@@ -36021,7 +36021,7 @@
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F516" t="inlineStr">
@@ -36052,7 +36052,7 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M516" t="inlineStr">
@@ -36088,7 +36088,7 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
@@ -36119,7 +36119,7 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M517" t="inlineStr">
@@ -36157,7 +36157,7 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
@@ -36190,7 +36190,7 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="M518" t="inlineStr">
@@ -36226,7 +36226,7 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
@@ -36259,7 +36259,7 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M519" t="inlineStr">
@@ -36295,7 +36295,7 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
@@ -36326,7 +36326,7 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="M520" t="inlineStr">
@@ -36364,7 +36364,7 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
@@ -36397,7 +36397,7 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M521" t="inlineStr">
@@ -36433,7 +36433,7 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
@@ -36466,7 +36466,7 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="M522" t="inlineStr">
@@ -36502,7 +36502,7 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
@@ -36535,7 +36535,7 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M523" t="inlineStr">
@@ -36571,7 +36571,7 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
@@ -36602,7 +36602,7 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M524" t="inlineStr">
@@ -36638,7 +36638,7 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
@@ -36671,7 +36671,7 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="M525" t="inlineStr">
@@ -36709,7 +36709,7 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
@@ -36740,7 +36740,7 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M526" t="inlineStr">
@@ -36776,7 +36776,7 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
@@ -36809,7 +36809,7 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="M527" t="inlineStr">
@@ -36847,7 +36847,7 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
@@ -36880,7 +36880,7 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="M528" t="inlineStr">
@@ -36918,7 +36918,7 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
@@ -36949,7 +36949,7 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="M529" t="inlineStr">
@@ -36985,7 +36985,7 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
@@ -37018,7 +37018,7 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M530" t="inlineStr">
@@ -37056,7 +37056,7 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
@@ -37087,7 +37087,7 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="M531" t="inlineStr">
@@ -37123,7 +37123,7 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
@@ -37156,7 +37156,7 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="M532" t="inlineStr">
